--- a/Project Report/Test Cases Graph.xlsx
+++ b/Project Report/Test Cases Graph.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramm\OneDrive\Desktop\Uni\ECTE331\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mramm\OneDrive\Desktop\Uni\ECTE331\GitHub\Project\Project Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D884C549-2709-42C5-92C1-D46FA4352713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706CCBB7-7C71-49E3-85A8-6E9B3F6E6CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{84DE96EF-AB40-464A-84D0-7B6E6A9B40E9}"/>
+    <workbookView xWindow="2184" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{84DE96EF-AB40-464A-84D0-7B6E6A9B40E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,16 +68,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,12 +106,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -189,7 +234,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -266,7 +311,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$E$5:$E$7</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -283,7 +328,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:f>Sheet1!$F$5:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -310,7 +355,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -387,7 +432,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$E$5:$E$7</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -404,7 +449,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:f>Sheet1!$G$5:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1154,15 +1199,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1071562</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>147636</xdr:rowOff>
+      <xdr:colOff>516186</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123396</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>157916</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91111</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1507,65 +1552,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1836F898-34FA-42BB-9774-B378DBBA93C1}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="E4:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="4" spans="5:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="5" spans="5:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="F5" s="3">
         <v>16504</v>
       </c>
-      <c r="C2">
+      <c r="G5" s="3">
         <v>2618</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="6" spans="5:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="F6" s="3">
         <v>15757</v>
       </c>
-      <c r="C3">
+      <c r="G6" s="3">
         <v>2530</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="7" spans="5:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="F7" s="3">
         <v>16119</v>
       </c>
-      <c r="C4">
+      <c r="G7" s="3">
         <v>2541</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>